--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/4COM03_Metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A6302B-A8E9-534E-ABD6-72A087809934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C02FC-5B4D-BA4C-8C57-EDA2C04FC330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4740" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-4700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="5" r:id="rId1"/>
@@ -1144,7 +1144,7 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8:S9"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/DataManagementPlans/SWATE_templates/templates/4COM03_Metabolomics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM03_Metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C02FC-5B4D-BA4C-8C57-EDA2C04FC330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52268D-CC14-6D43-9D9F-EC66534F0D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -24,81 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dominik Brilhaus</author>
-  </authors>
-  <commentList>
-    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{140CBE1F-7B48-134E-9B41-9BC85F1D4E84}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dominik Brilhaus:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">cv: controlled vocabulary
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">m: mandatory 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">o: optional (can be mapped)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>n: not required (cannot be mapped)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Source Name</t>
   </si>
@@ -106,48 +33,18 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>SWATE annotation table</t>
-  </si>
-  <si>
-    <t>Content examples</t>
-  </si>
-  <si>
-    <t>Semantic Modelling</t>
-  </si>
-  <si>
     <t>Term Name</t>
   </si>
   <si>
     <t>Term Accession Number (TAN)</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>is_a</t>
-  </si>
-  <si>
-    <t>is_a URI</t>
-  </si>
-  <si>
     <t>Content type (Validation)</t>
   </si>
   <si>
-    <t xml:space="preserve">Comment: </t>
-  </si>
-  <si>
     <t>ER target term</t>
   </si>
   <si>
-    <t>ER requirement (cv/m/o/n)</t>
-  </si>
-  <si>
-    <t>Importance (0-5)</t>
-  </si>
-  <si>
-    <t>Justification</t>
-  </si>
-  <si>
     <t>Additional information</t>
   </si>
   <si>
@@ -221,13 +118,98 @@
   </si>
   <si>
     <t>*.mzData</t>
+  </si>
+  <si>
+    <t>SWATE_annotation_table</t>
+  </si>
+  <si>
+    <t>SWATE templating version (July 26, 2021)</t>
+  </si>
+  <si>
+    <t>content_examples</t>
+  </si>
+  <si>
+    <t>semantics_SWATE</t>
+  </si>
+  <si>
+    <t>Name of term (to be) linked in SWATE template</t>
+  </si>
+  <si>
+    <t>TAN (to be) linked in SWATE template</t>
+  </si>
+  <si>
+    <t>Term URI</t>
+  </si>
+  <si>
+    <t>URI of term (to be) linked in SWATE template</t>
+  </si>
+  <si>
+    <t>Info for SWATE checklist editor</t>
+  </si>
+  <si>
+    <t>semantics_other</t>
+  </si>
+  <si>
+    <t>Additional instruction we want to share for user convenience</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>semantics_nfdi4pso</t>
+  </si>
+  <si>
+    <t>xref term</t>
+  </si>
+  <si>
+    <t>Use for exact matches to terms from ontologies that are not imported to or part of swateDB</t>
+  </si>
+  <si>
+    <t>xref URI</t>
+  </si>
+  <si>
+    <t>synonym</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Name of the term in the ER target. This is what the SWATE template maps to.</t>
+  </si>
+  <si>
+    <t>ER instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User instructions coming from the ER (typcially as excel comments). May hold info for requirements of certain terms. </t>
+  </si>
+  <si>
+    <t>ER requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>m: mandatory 
+o: optional (can be mapped)
+n: not required (cannot be mapped)</t>
+  </si>
+  <si>
+    <t>ER value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>cv: controlled vocabulary
+s: free string
+d: number</t>
+  </si>
+  <si>
+    <t>Anything particular we need to be aware of</t>
+  </si>
+  <si>
+    <t>Comments towards the original template author</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,23 +248,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -371,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,22 +383,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -418,14 +400,53 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,8 +821,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB2092AC-614F-704E-8871-2BD6E7F964FB}" name="annotationTable" displayName="annotationTable" ref="C2:Q3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="C2:Q3" xr:uid="{208E1453-2FC4-AF4B-A87A-2C5775F13953}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB2092AC-614F-704E-8871-2BD6E7F964FB}" name="annotationTable" displayName="annotationTable" ref="D2:R3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="D2:R3" xr:uid="{208E1453-2FC4-AF4B-A87A-2C5775F13953}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1408720F-A080-F948-9E9A-11F5844E0CF9}" name="Source Name" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{EBF6BEE7-75C2-DB4A-A875-26F210730C86}" name="Sample Name" dataDxfId="13"/>
@@ -1137,45 +1158,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.83203125" style="19" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="59" style="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.83203125" style="19" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="60.1640625" style="19" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.83203125" style="19" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="59" style="19" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="37.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="66.33203125" style="19" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="72.5" style="19" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="19"/>
+    <col min="1" max="1" width="34.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="59" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="60.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="59" style="14" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="66.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="72.5" style="14" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1188,365 +1212,692 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="Q2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="R2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="4"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="E5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="C13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23" t="s">
+      <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="E6" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+    </row>
+    <row r="18" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="C24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+    </row>
+    <row r="27" spans="1:16" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="1:16" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="C28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+    </row>
+    <row r="29" spans="1:16" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="C29" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM03_Metabolomics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F52268D-CC14-6D43-9D9F-EC66534F0D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86770A15-FFE4-4ECC-B123-7EB550471997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="5" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>Source Name</t>
   </si>
@@ -203,6 +212,18 @@
   </si>
   <si>
     <t>Comments towards the original template author</t>
+  </si>
+  <si>
+    <t>The name of the input (the source) of this assay.</t>
+  </si>
+  <si>
+    <t>not required when Data File Name is used for the end "product"</t>
+  </si>
+  <si>
+    <t>The name of the data file of this sample.</t>
+  </si>
+  <si>
+    <t>User instruction, Term &amp; TAN missing</t>
   </si>
 </sst>
 </file>
@@ -274,7 +295,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,10 +474,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{C330E3B2-2BF7-184E-8C2F-47A51BE085E3}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -845,7 +887,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1159,39 +1201,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.875" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="59" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.83203125" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="60.1640625" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="30.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.83203125" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.875" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="60.125" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.875" style="14" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="59" style="14" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="37.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="66.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="66.375" style="14" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="72.5" style="14" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>31</v>
       </c>
@@ -1215,49 +1257,49 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="17" t="s">
@@ -1267,29 +1309,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1307,7 +1349,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1337,7 +1379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1361,7 +1403,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -1383,7 +1425,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -1403,7 +1445,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +1465,7 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -1443,7 +1485,7 @@
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1461,7 +1503,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1527,7 @@
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
     </row>
-    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
@@ -1509,7 +1551,7 @@
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
     </row>
-    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -1533,7 +1575,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -1557,7 +1599,7 @@
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
@@ -1567,9 +1609,13 @@
       <c r="C16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
@@ -1581,7 +1627,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +1649,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -1627,7 +1673,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
     </row>
-    <row r="19" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -1651,7 +1697,7 @@
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
@@ -1673,7 +1719,7 @@
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1682,20 +1728,30 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="G21" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="J21" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1713,7 +1769,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
@@ -1731,7 +1787,7 @@
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
     </row>
-    <row r="24" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1811,7 @@
       <c r="O24" s="25"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
@@ -1779,7 +1835,7 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>9</v>
       </c>
@@ -1803,7 +1859,7 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
     </row>
-    <row r="27" spans="1:16" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +1883,7 @@
       <c r="O27" s="30"/>
       <c r="P27" s="30"/>
     </row>
-    <row r="28" spans="1:16" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1907,7 @@
       <c r="O28" s="25"/>
       <c r="P28" s="25"/>
     </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1931,7 @@
       <c r="O29" s="25"/>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM03_Metabolomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86770A15-FFE4-4ECC-B123-7EB550471997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E15EE-E98A-4A05-B010-9C1E759C2768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Source Name</t>
   </si>
@@ -224,13 +224,34 @@
   </si>
   <si>
     <t>User instruction, Term &amp; TAN missing</t>
+  </si>
+  <si>
+    <t>DATA TRANSFORMATION - Derived Spectral Data File</t>
+  </si>
+  <si>
+    <t>If your data has been transformed into one of the open-source raw data formats e.g. mzML , CDF, or any other converted file, then add them here. Please add full path of the file in the cell.</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>METABOLITE IDENTIFICATION - Metabolite Assignment File</t>
+  </si>
+  <si>
+    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,6 +313,11 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -387,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,6 +514,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1203,11 +1232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1217,17 +1246,17 @@
     <col min="3" max="3" width="42.625" style="14" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.875" style="14" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="59" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.375" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="53.875" style="14" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="60.125" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="30.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.375" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="52.875" style="14" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="59" style="14" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.625" style="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="66.375" style="14" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="72.5" style="14" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="14"/>
@@ -1799,19 +1828,23 @@
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="39" t="s">
+        <v>62</v>
+      </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-    </row>
-    <row r="25" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="P24" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>9</v>
       </c>
@@ -1823,17 +1856,21 @@
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
+      <c r="M25" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="N25" s="30"/>
       <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
+      <c r="P25" s="39" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
@@ -1847,17 +1884,21 @@
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
+      <c r="M26" s="39" t="s">
+        <v>64</v>
+      </c>
       <c r="N26" s="30"/>
       <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
+      <c r="P26" s="39" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="1:16" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
@@ -1871,17 +1912,21 @@
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
+      <c r="M27" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
+      <c r="P27" s="39" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E15EE-E98A-4A05-B010-9C1E759C2768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC5C93-29BB-42CF-9B38-79C024F7025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -1212,7 +1212,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="641" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1236,7 +1236,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\4COM03_Metabolomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC5C93-29BB-42CF-9B38-79C024F7025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E0823-90A3-4017-B07A-4F109590A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="5" r:id="rId1"/>
@@ -1236,7 +1236,7 @@
       <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM03_Metabolomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM03_Metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2E0823-90A3-4017-B07A-4F109590A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7614E-A4CB-4440-B803-541D93585473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="5" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>Source Name</t>
   </si>
@@ -54,9 +45,6 @@
     <t>ER target term</t>
   </si>
   <si>
-    <t>Additional information</t>
-  </si>
-  <si>
     <t>User instruction</t>
   </si>
   <si>
@@ -130,9 +118,6 @@
   </si>
   <si>
     <t>SWATE_annotation_table</t>
-  </si>
-  <si>
-    <t>SWATE templating version (July 26, 2021)</t>
   </si>
   <si>
     <t>content_examples</t>
@@ -214,18 +199,9 @@
     <t>Comments towards the original template author</t>
   </si>
   <si>
-    <t>The name of the input (the source) of this assay.</t>
-  </si>
-  <si>
     <t>not required when Data File Name is used for the end "product"</t>
   </si>
   <si>
-    <t>The name of the data file of this sample.</t>
-  </si>
-  <si>
-    <t>User instruction, Term &amp; TAN missing</t>
-  </si>
-  <si>
     <t>DATA TRANSFORMATION - Derived Spectral Data File</t>
   </si>
   <si>
@@ -245,6 +221,45 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>SWATE templating version (August 18, 2021)</t>
+  </si>
+  <si>
+    <t>is_a term</t>
+  </si>
+  <si>
+    <t>Use to specify subclasses of existing terms</t>
+  </si>
+  <si>
+    <t>is_a URI</t>
+  </si>
+  <si>
+    <t>ER Additional information</t>
+  </si>
+  <si>
+    <t>MS:1001999</t>
+  </si>
+  <si>
+    <t>area normalization</t>
+  </si>
+  <si>
+    <t>data transformation</t>
+  </si>
+  <si>
+    <t>MS:1000452</t>
+  </si>
+  <si>
+    <t>processed data file</t>
+  </si>
+  <si>
+    <t>MS:1003084</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000077</t>
+  </si>
+  <si>
+    <t>Metabolite Assignment File</t>
   </si>
 </sst>
 </file>
@@ -413,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,19 +524,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{C330E3B2-2BF7-184E-8C2F-47A51BE085E3}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -916,7 +934,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1212,7 +1230,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="641" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1230,45 +1248,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="24" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.875" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="59" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="33.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.875" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="60.125" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="33.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.875" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="59" style="14" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="38.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="66.375" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="72.5" style="14" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56.5" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="62.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="33.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="55.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="61.5" style="14" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="42" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="68.6640625" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="75.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
-        <v>32</v>
+      <c r="C1" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
@@ -1286,9 +1304,9 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1299,48 +1317,48 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1360,7 +1378,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1378,46 +1396,46 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="33"/>
       <c r="E5" s="33"/>
       <c r="F5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
       <c r="J5" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -1426,15 +1444,15 @@
       <c r="K6" s="33"/>
       <c r="L6" s="33"/>
       <c r="M6" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1448,15 +1466,15 @@
       <c r="K7" s="33"/>
       <c r="L7" s="33"/>
       <c r="M7" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1474,9 +1492,9 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1494,9 +1512,9 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1514,7 +1532,7 @@
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1532,63 +1550,79 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="M12" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="M13" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -1604,15 +1638,15 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -1628,44 +1662,42 @@
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -1678,15 +1710,15 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -1702,15 +1734,15 @@
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -1726,273 +1758,311 @@
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+    </row>
+    <row r="26" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="91" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-    </row>
-    <row r="24" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="C27" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="86.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="39"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="39" t="s">
-        <v>65</v>
+      <c r="M27" s="37" t="s">
+        <v>58</v>
       </c>
       <c r="N27" s="30"/>
       <c r="O27" s="30"/>
-      <c r="P27" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-    </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
+      <c r="B29" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+    </row>
+    <row r="31" spans="1:16" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM03_Metabolomics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7614E-A4CB-4440-B803-541D93585473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526E7FB2-5884-4C84-A67A-5F3AD9E2A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>Source Name</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>Metabolite Assignment File</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Raw Spectral Data File</t>
+  </si>
+  <si>
+    <t>This is where you should enter the Raw (unprocessed) MS data files (.RAW ). Please add full path of the file in the cell.</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>In this case Source Name is equal to Data File Name</t>
   </si>
 </sst>
 </file>
@@ -336,7 +348,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +397,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -428,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,9 +542,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -536,10 +551,19 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{C330E3B2-2BF7-184E-8C2F-47A51BE085E3}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -934,7 +958,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1250,42 +1274,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="24" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="34.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="14" customWidth="1"/>
     <col min="4" max="4" width="16" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.33203125" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="61.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.375" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="61.625" style="14" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="32.875" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="56.5" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="62.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="33.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="55.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="62.625" style="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="33.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="55.125" style="14" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="61.5" style="14" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="42" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="68.6640625" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="75.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="68.625" style="14" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="75.125" style="14" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>64</v>
       </c>
       <c r="D1" s="1"/>
@@ -1304,7 +1328,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1356,7 +1380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1378,7 +1402,7 @@
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1396,7 +1420,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1426,7 +1450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1450,7 +1474,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1496,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1516,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1536,7 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -1532,7 +1556,7 @@
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1550,7 +1574,7 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
@@ -1614,7 +1638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -1638,7 +1662,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>32</v>
       </c>
@@ -1662,7 +1686,7 @@
       <c r="O15" s="23"/>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
@@ -1674,7 +1698,7 @@
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="40"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
@@ -1686,7 +1710,7 @@
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -1710,7 +1734,7 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -1734,7 +1758,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -1758,11 +1782,11 @@
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -1782,11 +1806,11 @@
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1806,7 +1830,7 @@
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>41</v>
       </c>
@@ -1828,7 +1852,7 @@
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1850,7 +1874,7 @@
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1868,7 +1892,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -1886,7 +1910,7 @@
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
     </row>
-    <row r="26" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
@@ -1898,23 +1922,25 @@
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
+      <c r="F26" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="37" t="s">
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="91" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>8</v>
       </c>
@@ -1926,23 +1952,25 @@
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
+      <c r="F27" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
-      <c r="M27" s="37" t="s">
+      <c r="M27" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="37" t="s">
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>8</v>
       </c>
@@ -1954,23 +1982,29 @@
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
+      <c r="F28" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40" t="s">
+        <v>79</v>
+      </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="37" t="s">
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
@@ -1982,23 +2016,25 @@
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="F29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
-      <c r="M29" s="37" t="s">
+      <c r="M29" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="37" t="s">
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>8</v>
       </c>
@@ -2008,7 +2044,9 @@
       <c r="C30" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -2022,7 +2060,7 @@
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" s="16" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
@@ -2046,7 +2084,7 @@
       <c r="O31" s="25"/>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\4COM03_Metabolomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM03_Metabolomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526E7FB2-5884-4C84-A67A-5F3AD9E2A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8C898-2F79-504C-AE97-76DE08AD4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-2940" yWindow="-20680" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Source Name</t>
   </si>
@@ -33,21 +33,12 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>Term Name</t>
-  </si>
-  <si>
-    <t>Term Accession Number (TAN)</t>
-  </si>
-  <si>
     <t>Content type (Validation)</t>
   </si>
   <si>
     <t>ER target term</t>
   </si>
   <si>
-    <t>User instruction</t>
-  </si>
-  <si>
     <t>Review comments</t>
   </si>
   <si>
@@ -123,85 +114,18 @@
     <t>content_examples</t>
   </si>
   <si>
-    <t>semantics_SWATE</t>
-  </si>
-  <si>
-    <t>Name of term (to be) linked in SWATE template</t>
-  </si>
-  <si>
-    <t>TAN (to be) linked in SWATE template</t>
-  </si>
-  <si>
-    <t>Term URI</t>
-  </si>
-  <si>
-    <t>URI of term (to be) linked in SWATE template</t>
-  </si>
-  <si>
-    <t>Info for SWATE checklist editor</t>
-  </si>
-  <si>
-    <t>semantics_other</t>
-  </si>
-  <si>
-    <t>Additional instruction we want to share for user convenience</t>
-  </si>
-  <si>
     <t>Notes during templating</t>
   </si>
   <si>
-    <t>semantics_nfdi4pso</t>
-  </si>
-  <si>
-    <t>xref term</t>
-  </si>
-  <si>
-    <t>Use for exact matches to terms from ontologies that are not imported to or part of swateDB</t>
-  </si>
-  <si>
-    <t>xref URI</t>
-  </si>
-  <si>
-    <t>synonym</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Name of the term in the ER target. This is what the SWATE template maps to.</t>
-  </si>
-  <si>
     <t>ER instruction</t>
   </si>
   <si>
-    <t xml:space="preserve">User instructions coming from the ER (typcially as excel comments). May hold info for requirements of certain terms. </t>
-  </si>
-  <si>
     <t>ER requirement (m/o/n)</t>
   </si>
   <si>
-    <t>m: mandatory 
-o: optional (can be mapped)
-n: not required (cannot be mapped)</t>
-  </si>
-  <si>
     <t>ER value (cv/s/d)</t>
   </si>
   <si>
-    <t>cv: controlled vocabulary
-s: free string
-d: number</t>
-  </si>
-  <si>
-    <t>Anything particular we need to be aware of</t>
-  </si>
-  <si>
-    <t>Comments towards the original template author</t>
-  </si>
-  <si>
-    <t>not required when Data File Name is used for the end "product"</t>
-  </si>
-  <si>
     <t>DATA TRANSFORMATION - Derived Spectral Data File</t>
   </si>
   <si>
@@ -223,45 +147,9 @@
     <t>m</t>
   </si>
   <si>
-    <t>SWATE templating version (August 18, 2021)</t>
-  </si>
-  <si>
-    <t>is_a term</t>
-  </si>
-  <si>
-    <t>Use to specify subclasses of existing terms</t>
-  </si>
-  <si>
-    <t>is_a URI</t>
-  </si>
-  <si>
     <t>ER Additional information</t>
   </si>
   <si>
-    <t>MS:1001999</t>
-  </si>
-  <si>
-    <t>area normalization</t>
-  </si>
-  <si>
-    <t>data transformation</t>
-  </si>
-  <si>
-    <t>MS:1000452</t>
-  </si>
-  <si>
-    <t>processed data file</t>
-  </si>
-  <si>
-    <t>MS:1003084</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000077</t>
-  </si>
-  <si>
-    <t>Metabolite Assignment File</t>
-  </si>
-  <si>
     <t>MASS SPECTROMETRY - Raw Spectral Data File</t>
   </si>
   <si>
@@ -272,13 +160,22 @@
   </si>
   <si>
     <t>In this case Source Name is equal to Data File Name</t>
+  </si>
+  <si>
+    <t>For info on filling, check template online</t>
+  </si>
+  <si>
+    <t>SWATE_validation</t>
+  </si>
+  <si>
+    <t>templating_notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,8 +244,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,18 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4FB3D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF377D98"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,11 +335,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,40 +360,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -509,15 +383,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -533,37 +398,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{C330E3B2-2BF7-184E-8C2F-47A51BE085E3}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -934,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB2092AC-614F-704E-8871-2BD6E7F964FB}" name="annotationTable" displayName="annotationTable" ref="D2:R3" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="D2:R3" xr:uid="{208E1453-2FC4-AF4B-A87A-2C5775F13953}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB2092AC-614F-704E-8871-2BD6E7F964FB}" name="annotationTable" displayName="annotationTable" ref="C2:Q21" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="C2:Q21" xr:uid="{208E1453-2FC4-AF4B-A87A-2C5775F13953}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1408720F-A080-F948-9E9A-11F5844E0CF9}" name="Source Name" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{EBF6BEE7-75C2-DB4A-A875-26F210730C86}" name="Sample Name" dataDxfId="13"/>
@@ -953,12 +819,12 @@
     <tableColumn id="14" xr3:uid="{7C7A2C6C-54EA-394F-B358-645981DEEB44}" name="Term Source REF [Metabolite Assignment File] (#h; #tNFDI4PSO:0000077)" dataDxfId="1"/>
     <tableColumn id="15" xr3:uid="{E103F9E2-834F-AC43-84CC-600BA525559E}" name="Term Accession Number [Metabolite Assignment File] (#h; #tNFDI4PSO:0000077)" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1272,47 +1138,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="24" topLeftCell="D25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.375" style="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="61.625" style="14" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="32.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="56.5" style="14" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="62.625" style="14" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="33.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="55.125" style="14" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="61.5" style="14" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="42" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="68.625" style="14" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="75.125" style="14" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="14"/>
+    <col min="1" max="1" width="34.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="61.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.5" style="10" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="62.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.1640625" style="10" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="61.5" style="10" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="42" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="68.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="75.1640625" style="10" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1325,67 +1190,65 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -1398,11 +1261,10 @@
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1418,145 +1280,152 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33" t="s">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1572,541 +1441,269 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" ht="91" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="M18" s="26"/>
       <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-    </row>
-    <row r="26" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="O18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+    </row>
+    <row r="19" spans="1:17" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-    </row>
-    <row r="31" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
+      <c r="B19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="1:17" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="For more info, check online" xr:uid="{7D368B00-88C6-9440-8DF8-1628D5CC6C02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/4COM03_Metabolomics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C8C898-2F79-504C-AE97-76DE08AD4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF90E46-ADAE-4C71-95D9-79299F8C3BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2940" yWindow="-20680" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Source Name</t>
   </si>
@@ -156,12 +156,6 @@
     <t>This is where you should enter the Raw (unprocessed) MS data files (.RAW ). Please add full path of the file in the cell.</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>In this case Source Name is equal to Data File Name</t>
-  </si>
-  <si>
     <t>For info on filling, check template online</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
   </si>
   <si>
     <t>templating_notes</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -253,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,18 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -398,18 +383,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -425,11 +398,20 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{C330E3B2-2BF7-184E-8C2F-47A51BE085E3}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -824,7 +806,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1138,43 +1120,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBB40E6-F06B-AE48-B869-B32AACDBDD09}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="34.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="10" customWidth="1"/>
     <col min="3" max="3" width="16" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="61.6640625" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="34.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.375" style="10" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="61.625" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.875" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="56.5" style="10" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="62.6640625" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="33.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="55.1640625" style="10" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="62.625" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="55.125" style="10" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="61.5" style="10" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="42" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="68.6640625" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="75.1640625" style="10" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="68.625" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="75.125" style="10" hidden="1" customWidth="1"/>
     <col min="18" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>45</v>
+      <c r="B1" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -1192,7 +1174,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1243,7 +1225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -1264,7 +1246,7 @@
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1283,7 +1265,7 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1314,7 +1296,7 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
@@ -1339,7 +1321,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
@@ -1362,7 +1344,7 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -1383,7 +1365,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1404,7 +1386,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -1425,7 +1407,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1444,11 +1426,11 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="29" t="s">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="15"/>
@@ -1467,16 +1449,14 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="30" t="s">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="C13" s="28"/>
       <c r="D13" s="15"/>
       <c r="E13" s="11"/>
       <c r="F13" s="15"/>
@@ -1492,7 +1472,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1511,7 +1491,7 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
     </row>
-    <row r="15" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
@@ -1520,27 +1500,31 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="24" t="s">
+      <c r="F15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24" t="s">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29" t="s">
         <v>37</v>
       </c>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
     </row>
-    <row r="16" spans="1:17" ht="91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1549,27 +1533,31 @@
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="24" t="s">
+      <c r="F16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="24" t="s">
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="29" t="s">
         <v>38</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
     </row>
-    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
@@ -1578,31 +1566,31 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="24" t="s">
+      <c r="F17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="24" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="29" t="s">
         <v>39</v>
       </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
     </row>
-    <row r="18" spans="1:17" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
@@ -1611,34 +1599,38 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="24" t="s">
+      <c r="F18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="24" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-    </row>
-    <row r="19" spans="1:17" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+    </row>
+    <row r="19" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1651,10 +1643,10 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-    </row>
-    <row r="20" spans="1:17" s="12" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+    </row>
+    <row r="20" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
@@ -1674,10 +1666,10 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF90E46-ADAE-4C71-95D9-79299F8C3BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BB5228-34FB-4E43-822A-EE326B79E652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Source Name</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>METABOLITE IDENTIFICATION - Data Transformation Name</t>
+  </si>
+  <si>
+    <t>These should contain the data transformation files.</t>
   </si>
 </sst>
 </file>
@@ -325,7 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,6 +412,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1133,7 +1142,7 @@
   <cols>
     <col min="1" max="1" width="34.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="27.875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="16" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.875" style="10" customWidth="1"/>
     <col min="6" max="6" width="34.625" style="10" bestFit="1" customWidth="1"/>
@@ -1498,10 +1507,12 @@
       <c r="B15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="29" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="29" t="s">
-        <v>41</v>
+      <c r="E15" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>46</v>
@@ -1531,10 +1542,12 @@
       <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="29" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="29" t="s">
-        <v>42</v>
+      <c r="E16" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>46</v>
@@ -1564,9 +1577,11 @@
       <c r="B17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="29" t="s">
@@ -1597,9 +1612,11 @@
       <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="31" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="29" t="s">

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\4COM03_Metabolomics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BB5228-34FB-4E43-822A-EE326B79E652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8F0E81-7D17-43B9-9DBF-D5A7D84AA687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA2B9B0E-8C9E-F34F-95FF-EF6336B60454}"/>
   </bookViews>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC98B9F-8213-40EB-A4CB-116091A9F604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA109C8-4E39-4018-A764-457F798C7CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="4COM03_Metabolomics" sheetId="1" r:id="rId1"/>
+    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,8 +25,28 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3F105079-C209-495C-BFF9-7DB0D600B15C}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3F105079-C209-495C-BFF9-7DB0D600B15C}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    The unique identifier of this template. It will be auto generated.
+Antwort:
+    id=1683fef8-eb0f-4f29-bf9f-6d69e3d2e045</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Source Name</t>
   </si>
@@ -67,13 +88,142 @@
   </si>
   <si>
     <t>Data File Name</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Docslink</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>#ER list</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>ER Term Accession Number</t>
+  </si>
+  <si>
+    <t>ER Term Source REF</t>
+  </si>
+  <si>
+    <t>#TAGS list</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Tags Term Accession Number</t>
+  </si>
+  <si>
+    <t>Tags Term Source REF</t>
+  </si>
+  <si>
+    <t>#AUTHORS list</t>
+  </si>
+  <si>
+    <t>Authors Last Name</t>
+  </si>
+  <si>
+    <t>Authors First Name</t>
+  </si>
+  <si>
+    <t>Authors Mid Initials</t>
+  </si>
+  <si>
+    <t>Authors Email</t>
+  </si>
+  <si>
+    <t>Authors Phone</t>
+  </si>
+  <si>
+    <t>Authors Fax</t>
+  </si>
+  <si>
+    <t>Authors Address</t>
+  </si>
+  <si>
+    <t>Authors Affiliation</t>
+  </si>
+  <si>
+    <t>#AUTHORS ROLES list</t>
+  </si>
+  <si>
+    <t>Authors Roles</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Roles Term Source REF</t>
+  </si>
+  <si>
+    <t>1683fef8-eb0f-4f29-bf9f-6d69e3d2e045</t>
+  </si>
+  <si>
+    <t>Metabolomics Computational Analysis</t>
+  </si>
+  <si>
+    <t>Template to describe the computational analysis of metabolomics data.</t>
+  </si>
+  <si>
+    <t>annotationTableGoodFirefox6</t>
+  </si>
+  <si>
+    <t>METABOLIGHTS</t>
+  </si>
+  <si>
+    <t>Metabolomics</t>
+  </si>
+  <si>
+    <t>GC-MS</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>metabolites</t>
+  </si>
+  <si>
+    <t>Computational Analysis</t>
+  </si>
+  <si>
+    <t>Brilhaus</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,19 +231,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF217346"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FCDB3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E5C2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC21F3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFEFEFE"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFEFEFE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFEFEFE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFEFEFE"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -102,8 +360,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -119,6 +407,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oliver Maus" id="{A9811626-E25B-4F72-8EA3-7B73D0DC83B4}" userId="Oliver Maus" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,9 +699,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2021-11-03T17:01:32.55" personId="{A9811626-E25B-4F72-8EA3-7B73D0DC83B4}" id="{3F105079-C209-495C-BFF9-7DB0D600B15C}">
+    <text>The unique identifier of this template. It will be auto generated.</text>
+  </threadedComment>
+  <threadedComment ref="A1" dT="2021-11-03T17:01:32.55" personId="{A9811626-E25B-4F72-8EA3-7B73D0DC83B4}" id="{7C018257-7BC2-4F50-AD4F-3EE203FC65FE}" parentId="{3F105079-C209-495C-BFF9-7DB0D600B15C}">
+    <text>id=1683fef8-eb0f-4f29-bf9f-6d69e3d2e045</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="646" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -425,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,4 +803,262 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CEA683-AF15-48D2-94CB-61AAB771AF0A}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<customXml>
+  <SwateTable Table="annotationTableGoodFirefox6">
+    <TableValidation DateTime="2021-11-03 17:01" SwateVersion="0.5.1" TableName="annotationTableGoodFirefox6" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [area normalization]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [data transformation]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [Metabolite Assignment File]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Processed data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    </TableValidation>
+  </SwateTable>
+</customXml>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A165C0EA-B922-42F2-907C-A31E239AA741}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA109C8-4E39-4018-A764-457F798C7CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C60DC09-CB63-41D3-AE3B-5758F69B3314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t>Source Name</t>
   </si>
@@ -217,13 +218,85 @@
   </si>
   <si>
     <t>1.1.5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TermSourceRef</t>
+  </si>
+  <si>
+    <t>Ontology</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>Content type (validation)</t>
+  </si>
+  <si>
+    <t>Notes during templating</t>
+  </si>
+  <si>
+    <t>Target term</t>
+  </si>
+  <si>
+    <t>Instruction</t>
+  </si>
+  <si>
+    <t>Requirement (m/o/n)</t>
+  </si>
+  <si>
+    <t>Value (cv/s/d)</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>Sample Name</t>
+  </si>
+  <si>
+    <t>MS:1001999</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1001999</t>
+  </si>
+  <si>
+    <t>MS:1000452</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1000452</t>
+  </si>
+  <si>
+    <t>Parameter [processed data file]</t>
+  </si>
+  <si>
+    <t>MS:1003084</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/MS_1003084</t>
+  </si>
+  <si>
+    <t>NFDI4PSO:0000077</t>
+  </si>
+  <si>
+    <t>NFDI4PSO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000077</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,12 +311,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -732,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1042,6 +1109,339 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableGoodFirefox6">

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C60DC09-CB63-41D3-AE3B-5758F69B3314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DF366-0944-45D2-B441-8ABC88E93214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM03_Metabolomics" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>Source Name</t>
   </si>
@@ -290,6 +299,42 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000077</t>
+  </si>
+  <si>
+    <t>MASS SPECTROMETRY - Raw Spectral Data File</t>
+  </si>
+  <si>
+    <t>This is where you should enter the Raw (unprocessed) MS data files (.RAW ). Please add full path of the file in the cell.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>METABOLITE IDENTIFICATION - Data Transformation Name</t>
+  </si>
+  <si>
+    <t>These should contain the data transformation files.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>DATA TRANSFORMATION - Derived Spectral Data File</t>
+  </si>
+  <si>
+    <t>If your data has been transformed into one of the open-source raw data formats e.g. mzML , CDF, or any other converted file, then add them here. Please add full path of the file in the cell.</t>
+  </si>
+  <si>
+    <t>METABOLITE IDENTIFICATION - Metabolite Assignment File</t>
+  </si>
+  <si>
+    <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
   </si>
 </sst>
 </file>
@@ -345,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -423,11 +468,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD2D2D2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD2D2D2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD2D2D2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD2D2D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -458,6 +518,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1113,9 +1179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1125,7 +1189,7 @@
     <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1134,308 +1198,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
+      <c r="B2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
+      <c r="E5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
+      <c r="E6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
-      </c>
+      <c r="E7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
+      <c r="E8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738DF366-0944-45D2-B441-8ABC88E93214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF2399-D9E3-44E6-9797-7605705EA852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>Source Name</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Oliver</t>
   </si>
   <si>
-    <t>1.1.5</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -335,13 +332,34 @@
   </si>
   <si>
     <t>A TSV file containing information about the metabolites investigated in the study. Information regarding database accession IDs , where in the spectra the metabolite is found and data pertaining to its abundance within the study samples should be in this file.</t>
+  </si>
+  <si>
+    <t>normalized to ribitol and sample weight</t>
+  </si>
+  <si>
+    <t>baseline-correction via MetAlign</t>
+  </si>
+  <si>
+    <t>*.mzXML</t>
+  </si>
+  <si>
+    <t>*.mzML</t>
+  </si>
+  <si>
+    <t>*.mzData</t>
+  </si>
+  <si>
+    <t>*_maf.tsv</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +371,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFF5F5F5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -484,8 +509,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -526,7 +552,8 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{55B805AD-1AFC-4E4A-94E1-DFD63646452E}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,8 +576,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EAFC761-E9AC-477E-83A4-B7B6305C83BB}" name="annotationTableGoodFirefox6" displayName="annotationTableGoodFirefox6" ref="A1:N2" totalsRowShown="0">
-  <autoFilter ref="A1:N2" xr:uid="{3EAFC761-E9AC-477E-83A4-B7B6305C83BB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3EAFC761-E9AC-477E-83A4-B7B6305C83BB}" name="annotationTableGoodFirefox6" displayName="annotationTableGoodFirefox6" ref="A1:N4" totalsRowShown="0">
+  <autoFilter ref="A1:N4" xr:uid="{3EAFC761-E9AC-477E-83A4-B7B6305C83BB}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{ABC5189C-88B0-45A7-96A2-18A8509FDB02}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{17F415C5-E9CE-4245-AB3A-BE5962B92971}" name="Parameter [area normalization]"/>
@@ -848,6 +875,9 @@
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="670" row="2">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
@@ -861,9 +891,19 @@
 </we:webextension>
 </file>
 
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{917D04D0-C30B-4A36-81A0-031F82FC0437}">
+  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad84" version="0.5.1.0" store="\\DT-P-2020-04-OM\swate_manifests" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,6 +970,30 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -972,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,40 +1263,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1240,53 +1304,53 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -1300,31 +1364,31 @@
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="I4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1334,31 +1398,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="J5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -1368,65 +1432,65 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>88</v>
-      </c>
       <c r="J6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="I7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -1436,31 +1500,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="I8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -1473,20 +1537,20 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <customXml>
   <SwateTable Table="annotationTableGoodFirefox6">
-    <TableValidation DateTime="2021-11-03 17:01" SwateVersion="0.5.1" TableName="annotationTableGoodFirefox6" Userlist="">
-      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [area normalization]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [data transformation]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [Metabolite Assignment File]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Processed data file format]" Importance="None" Unit="None" ValidationFormat="None"/>
-      <ColumnValidation ColumnAdress="13" ColumnHeader="Data File Name" Importance="None" Unit="None" ValidationFormat="None"/>
+    <TableValidation DateTime="2021-12-13 20:59" SwateVersion="0.5.1" TableName="annotationTableGoodFirefox6" Userlist="">
+      <ColumnValidation ColumnAdress="0" ColumnHeader="Source Name" Importance="5" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="1" ColumnHeader="Parameter [area normalization]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="4" ColumnHeader="Parameter [data transformation]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="7" ColumnHeader="Parameter [Metabolite Assignment File]" Importance="3" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="10" ColumnHeader="Parameter [Processed data file format]" Importance="4" Unit="None" ValidationFormat="None"/>
+      <ColumnValidation ColumnAdress="13" ColumnHeader="Data File Name" Importance="5" Unit="None" ValidationFormat="None"/>
     </TableValidation>
   </SwateTable>
 </customXml>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A165C0EA-B922-42F2-907C-A31E239AA741}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663843B7-D60E-49D0-B795-A31B965ED45D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
+++ b/templates/4COM03_Metabolomics/4COM03_Metabolomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\4COM03_Metabolomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF2399-D9E3-44E6-9797-7605705EA852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F539D9-9CD8-4517-997E-1B114A7BDFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Source Name</t>
   </si>
@@ -352,7 +352,10 @@
     <t>*_maf.tsv</t>
   </si>
   <si>
-    <t>1.1.6</t>
+    <t>user-specific</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="0" width="615" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="670" row="2">
@@ -910,7 +913,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
@@ -974,24 +977,60 @@
       <c r="B2" t="s">
         <v>92</v>
       </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
       <c r="E2" t="s">
         <v>93</v>
       </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
       <c r="H2" t="s">
         <v>97</v>
       </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
       <c r="K2" t="s">
         <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>95</v>
       </c>
+      <c r="L3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1075,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
